--- a/draft/figure/Graph/not_realtask/xls/Memcpy_hybrid_HtoD.xlsx
+++ b/draft/figure/Graph/not_realtask/xls/Memcpy_hybrid_HtoD.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22624"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="47560" yWindow="2700" windowWidth="25600" windowHeight="16060" tabRatio="500" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="DMADMA" sheetId="9" r:id="rId1"/>
@@ -17,6 +17,9 @@
     <sheet name="GPC4IORW" sheetId="14" r:id="rId8"/>
     <sheet name="グラフ" sheetId="7" r:id="rId9"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId10"/>
+  </externalReferences>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -350,7 +353,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1445,11 +1447,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2127954312"/>
-        <c:axId val="-2122898904"/>
+        <c:axId val="2093725096"/>
+        <c:axId val="2085635064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2127954312"/>
+        <c:axId val="2093725096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1472,7 +1474,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1489,7 +1490,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2122898904"/>
+        <c:crossAx val="2085635064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -1498,7 +1499,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2122898904"/>
+        <c:axId val="2085635064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20.0"/>
@@ -1523,14 +1524,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2127954312"/>
+        <c:crossAx val="2093725096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3571,11 +3571,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2116838984"/>
-        <c:axId val="-2129286808"/>
+        <c:axId val="2134288936"/>
+        <c:axId val="2134207752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2116838984"/>
+        <c:axId val="2134288936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3615,7 +3615,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2129286808"/>
+        <c:crossAx val="2134207752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -3624,7 +3624,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2129286808"/>
+        <c:axId val="2134207752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20.0"/>
@@ -3656,7 +3656,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2116838984"/>
+        <c:crossAx val="2134288936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4755,11 +4755,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2128031544"/>
-        <c:axId val="-2127858408"/>
+        <c:axId val="2134237384"/>
+        <c:axId val="2134243144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2128031544"/>
+        <c:axId val="2134237384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4799,7 +4799,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2127858408"/>
+        <c:crossAx val="2134243144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -4808,7 +4808,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2127858408"/>
+        <c:axId val="2134243144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20.0"/>
@@ -4840,7 +4840,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2128031544"/>
+        <c:crossAx val="2134237384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6240,11 +6240,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2110752920"/>
-        <c:axId val="-2128597064"/>
+        <c:axId val="2129485768"/>
+        <c:axId val="2129491352"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2110752920"/>
+        <c:axId val="2129485768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6284,7 +6284,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2128597064"/>
+        <c:crossAx val="2129491352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -6293,7 +6293,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2128597064"/>
+        <c:axId val="2129491352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5.0"/>
@@ -6332,7 +6332,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="-2110752920"/>
+        <c:crossAx val="2129485768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6373,6 +6373,1518 @@
     <a:p>
       <a:pPr>
         <a:defRPr sz="1400"/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.106917565399112"/>
+          <c:y val="0.0557551475024364"/>
+          <c:w val="0.85385509571967"/>
+          <c:h val="0.775684760917655"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>DMA/DMA</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>DMADMA!$B$5:$X$5</c:f>
+              <c:strCache>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>16 B</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32 B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64 B</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128 B</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256 B</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512 B</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1 KB</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2 KB</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4 KB</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8 KB</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16 KB</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32 KB</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64 KB</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>128 KB</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>256 KB</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>512 KB</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1 MB</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2 MB</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4 MB</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8 MB</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16 MB</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>32 MB</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>64 MB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>DMADMA!$B$9:$W$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0.640569999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.628899999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.62289</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.617939999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.610920000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.63832</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.62651</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.63878</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.60913</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.434980000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.50598</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.44012</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.97568</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.96522</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.803450000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.968450000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.27916</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.04447</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.817099999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.95581</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.987429999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11.44067</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>HUB/DMA</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>DMADMA!$B$5:$X$5</c:f>
+              <c:strCache>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>16 B</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32 B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64 B</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128 B</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256 B</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512 B</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1 KB</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2 KB</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4 KB</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8 KB</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16 KB</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32 KB</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64 KB</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>128 KB</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>256 KB</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>512 KB</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1 MB</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2 MB</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4 MB</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8 MB</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16 MB</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>32 MB</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>64 MB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HUBDMA!$B$9:$X$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.64069</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.457429999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.638000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.44891</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.47277</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.637460000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.46626</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.46793</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.508</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.53775</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.51649</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.42944</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.72832</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.99376</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.986830000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.94622</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.80728</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15.61681999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>31.40965998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>62.85757987999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>125.69944002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>250.9766099399998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>502.0682299699999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>GPC/DMA</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="7"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>DMADMA!$B$5:$X$5</c:f>
+              <c:strCache>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>16 B</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32 B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64 B</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128 B</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256 B</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512 B</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1 KB</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2 KB</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4 KB</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8 KB</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16 KB</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32 KB</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64 KB</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>128 KB</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>256 KB</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>512 KB</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1 MB</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2 MB</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4 MB</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8 MB</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16 MB</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>32 MB</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>64 MB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GPCDMA!$B$9:$X$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.48522</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.643950000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.48469</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.588890000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.46042</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3888</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.46337</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.45356</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.562959999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.52698</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.50941</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.40682</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.68082</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.345319999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.67772</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.303820000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10.59786</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21.22676002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42.48778993000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>84.90092049999996</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>169.7587604100001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>339.54331906</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>679.0031134300001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>GPC4/DMA</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="7"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>DMADMA!$B$5:$X$5</c:f>
+              <c:strCache>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>16 B</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32 B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64 B</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128 B</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256 B</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512 B</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1 KB</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2 KB</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4 KB</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8 KB</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16 KB</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32 KB</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64 KB</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>128 KB</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>256 KB</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>512 KB</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1 MB</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2 MB</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4 MB</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8 MB</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16 MB</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>32 MB</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>64 MB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GPC4DMA!$B$9:$X$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.58164</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4735</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.46324</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6377</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.46744</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.63561</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.46597</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.50687</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.58017</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.57269</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.522290000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.404759999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.22555</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.55286</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.72119</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4233</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.818019999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.601980000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11.18445</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22.27239006</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44.63736977000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>89.35626014999997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>178.89081009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>IORW/IORW</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="7"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>DMADMA!$B$5:$X$5</c:f>
+              <c:strCache>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>16 B</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32 B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64 B</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128 B</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256 B</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512 B</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1 KB</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2 KB</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4 KB</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8 KB</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16 KB</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32 KB</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64 KB</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>128 KB</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>256 KB</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>512 KB</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1 MB</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2 MB</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4 MB</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8 MB</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16 MB</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>32 MB</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>64 MB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IORWIORW!$B$9:$W$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0.00365</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.00385</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.00334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.00354</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.00349</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.00332</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.00462</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.00499</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.00743</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.00806</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.01011</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.01627</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.03075</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.06212</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.13912</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.25864</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.5131</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.95769</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.81451</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.709219999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.605590000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15.64425005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>GPC4/IORW</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>DMADMA!$B$5:$X$5</c:f>
+              <c:strCache>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>16 B</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32 B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64 B</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128 B</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256 B</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512 B</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1 KB</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2 KB</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4 KB</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8 KB</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16 KB</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32 KB</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64 KB</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>128 KB</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>256 KB</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>512 KB</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1 MB</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2 MB</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4 MB</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8 MB</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16 MB</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>32 MB</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>64 MB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GPC4IORW!$B$9:$X$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.021</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02157</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02013</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.02052</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0208</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.02064</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.02189</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.02409</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.02752</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.03704</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.0530699999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.08824</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.15852</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.30255</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.59472</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.17134</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.318280000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.59152</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.196699999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>18.61295015</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>37.15694003000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>74.40213977</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>149.0773296</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>GPC/IORW</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>DMADMA!$B$5:$X$5</c:f>
+              <c:strCache>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>16 B</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32 B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64 B</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128 B</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256 B</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512 B</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1 KB</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2 KB</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4 KB</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8 KB</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16 KB</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32 KB</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64 KB</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>128 KB</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>256 KB</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>512 KB</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1 MB</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2 MB</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4 MB</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8 MB</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16 MB</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>32 MB</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>64 MB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GPCIORW!$B$9:$X$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.02178</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02136</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0202</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.02032</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.02049</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0232</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.02815</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.03784</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.05409</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.09126</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.16018</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.29904</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.58433</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.181829999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.350399999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.71974</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.357599999999996</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.35314999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>36.46871996999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>73.86367995000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>147.9793096</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>296.8216295999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>591.5635198899997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>HUB/IORW</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>DMADMA!$B$5:$X$5</c:f>
+              <c:strCache>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>16 B</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32 B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64 B</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128 B</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256 B</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512 B</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1 KB</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2 KB</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4 KB</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8 KB</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16 KB</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32 KB</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>64 KB</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>128 KB</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>256 KB</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>512 KB</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1 MB</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2 MB</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4 MB</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8 MB</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16 MB</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>32 MB</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>64 MB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>HUBIORW!$B$9:$X$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.01527</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0148</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01618</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.01618</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.01609</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.01677</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.02118</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0284</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0443</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0711800000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.12583</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.21704</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.40646</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.88335</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.74679</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.499079999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.212359999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13.02481</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25.42083993</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>51.63653025</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>105.8098599399999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>214.3559202600001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>448.60648836</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2129599896"/>
+        <c:axId val="2136708248"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2129599896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2400"/>
+                  <a:t>Data Size </a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" sz="2400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-1080000"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2200"/>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2136708248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="0"/>
+        <c:tickLblSkip val="2"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2136708248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2400"/>
+                  <a:t>Data Transfer Time ( ms )</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" sz="2400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2200"/>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2129599896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.112490390715379"/>
+          <c:y val="0.0809147162105719"/>
+          <c:w val="0.193520318626792"/>
+          <c:h val="0.313807214827544"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000"/>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:solidFill>
+        <a:srgbClr val="000000"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1800"/>
       </a:pPr>
       <a:endParaRPr lang="ja-JP"/>
     </a:p>
@@ -6515,7 +8027,549 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="グラフ 8"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="DMA"/>
+      <sheetName val="IORW"/>
+      <sheetName val="PMEM"/>
+      <sheetName val="HUB"/>
+      <sheetName val="GPC"/>
+      <sheetName val="GPC4"/>
+      <sheetName val="グラフ"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="5">
+          <cell r="B5" t="str">
+            <v>16 B</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>32 B</v>
+          </cell>
+          <cell r="D5" t="str">
+            <v>64 B</v>
+          </cell>
+          <cell r="E5" t="str">
+            <v>128 B</v>
+          </cell>
+          <cell r="F5" t="str">
+            <v>256 B</v>
+          </cell>
+          <cell r="G5" t="str">
+            <v>512 B</v>
+          </cell>
+          <cell r="H5" t="str">
+            <v>1 KB</v>
+          </cell>
+          <cell r="I5" t="str">
+            <v>2 KB</v>
+          </cell>
+          <cell r="J5" t="str">
+            <v>4 KB</v>
+          </cell>
+          <cell r="K5" t="str">
+            <v>8 KB</v>
+          </cell>
+          <cell r="L5" t="str">
+            <v>16 KB</v>
+          </cell>
+          <cell r="M5" t="str">
+            <v>32 KB</v>
+          </cell>
+          <cell r="N5" t="str">
+            <v>64 KB</v>
+          </cell>
+          <cell r="O5" t="str">
+            <v>128 KB</v>
+          </cell>
+          <cell r="P5" t="str">
+            <v>256 KB</v>
+          </cell>
+          <cell r="Q5" t="str">
+            <v>512 KB</v>
+          </cell>
+          <cell r="R5" t="str">
+            <v>1 MB</v>
+          </cell>
+          <cell r="S5" t="str">
+            <v>2 MB</v>
+          </cell>
+          <cell r="T5" t="str">
+            <v>4 MB</v>
+          </cell>
+          <cell r="U5" t="str">
+            <v>8 MB</v>
+          </cell>
+          <cell r="V5" t="str">
+            <v>16 MB</v>
+          </cell>
+          <cell r="W5" t="str">
+            <v>32 MB</v>
+          </cell>
+          <cell r="X5" t="str">
+            <v>64 MB</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9">
+            <v>0.50439000000000012</v>
+          </cell>
+          <cell r="C9">
+            <v>0.56759999999999977</v>
+          </cell>
+          <cell r="D9">
+            <v>0.51110000000000022</v>
+          </cell>
+          <cell r="E9">
+            <v>0.53892999999999991</v>
+          </cell>
+          <cell r="F9">
+            <v>0.50746999999999987</v>
+          </cell>
+          <cell r="G9">
+            <v>0.52881000000000011</v>
+          </cell>
+          <cell r="H9">
+            <v>0.49443999999999988</v>
+          </cell>
+          <cell r="I9">
+            <v>0.53405000000000002</v>
+          </cell>
+          <cell r="J9">
+            <v>0.53729000000000005</v>
+          </cell>
+          <cell r="K9">
+            <v>0.59913999999999989</v>
+          </cell>
+          <cell r="L9">
+            <v>0.57677000000000012</v>
+          </cell>
+          <cell r="M9">
+            <v>0.63575000000000026</v>
+          </cell>
+          <cell r="N9">
+            <v>0.63066999999999995</v>
+          </cell>
+          <cell r="O9">
+            <v>0.60153999999999996</v>
+          </cell>
+          <cell r="P9">
+            <v>0.59076000000000006</v>
+          </cell>
+          <cell r="Q9">
+            <v>0.64145000000000008</v>
+          </cell>
+          <cell r="R9">
+            <v>0.69660000000000011</v>
+          </cell>
+          <cell r="S9">
+            <v>0.86072000000000015</v>
+          </cell>
+          <cell r="T9">
+            <v>1.1444600000000005</v>
+          </cell>
+          <cell r="U9">
+            <v>1.81203</v>
+          </cell>
+          <cell r="V9">
+            <v>3.0765699999999976</v>
+          </cell>
+          <cell r="W9">
+            <v>5.6455799999999998</v>
+          </cell>
+          <cell r="X9">
+            <v>10.701120000000003</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="9">
+          <cell r="B9">
+            <v>5.2200000000000033E-3</v>
+          </cell>
+          <cell r="C9">
+            <v>5.2700000000000038E-3</v>
+          </cell>
+          <cell r="D9">
+            <v>4.9800000000000035E-3</v>
+          </cell>
+          <cell r="E9">
+            <v>4.7900000000000035E-3</v>
+          </cell>
+          <cell r="F9">
+            <v>4.9300000000000038E-3</v>
+          </cell>
+          <cell r="G9">
+            <v>5.0400000000000037E-3</v>
+          </cell>
+          <cell r="H9">
+            <v>5.2400000000000033E-3</v>
+          </cell>
+          <cell r="I9">
+            <v>5.4300000000000034E-3</v>
+          </cell>
+          <cell r="J9">
+            <v>5.7300000000000042E-3</v>
+          </cell>
+          <cell r="K9">
+            <v>6.6600000000000036E-3</v>
+          </cell>
+          <cell r="L9">
+            <v>8.2200000000000068E-3</v>
+          </cell>
+          <cell r="M9">
+            <v>1.3349999999999994E-2</v>
+          </cell>
+          <cell r="N9">
+            <v>2.0759999999999983E-2</v>
+          </cell>
+          <cell r="O9">
+            <v>3.6059999999999974E-2</v>
+          </cell>
+          <cell r="P9">
+            <v>6.6920000000000007E-2</v>
+          </cell>
+          <cell r="Q9">
+            <v>0.12551000000000001</v>
+          </cell>
+          <cell r="R9">
+            <v>0.23211999999999999</v>
+          </cell>
+          <cell r="S9">
+            <v>0.45490999999999993</v>
+          </cell>
+          <cell r="T9">
+            <v>0.92941000000000018</v>
+          </cell>
+          <cell r="U9">
+            <v>1.8752099999999994</v>
+          </cell>
+          <cell r="V9">
+            <v>3.7371900000000009</v>
+          </cell>
+          <cell r="W9">
+            <v>7.4926600000000017</v>
+          </cell>
+          <cell r="X9">
+            <v>14.880720000000002</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2">
+        <row r="9">
+          <cell r="B9">
+            <v>2.8060000000000015E-2</v>
+          </cell>
+          <cell r="C9">
+            <v>2.7830000000000008E-2</v>
+          </cell>
+          <cell r="D9">
+            <v>2.6989999999999979E-2</v>
+          </cell>
+          <cell r="E9">
+            <v>1.8099999999999984E-2</v>
+          </cell>
+          <cell r="F9">
+            <v>2.8789999999999996E-2</v>
+          </cell>
+          <cell r="G9">
+            <v>3.2656999999999985E-2</v>
+          </cell>
+          <cell r="H9">
+            <v>3.6670000000000008E-2</v>
+          </cell>
+          <cell r="I9">
+            <v>0.10956999999999997</v>
+          </cell>
+          <cell r="J9">
+            <v>6.6940000000000013E-2</v>
+          </cell>
+          <cell r="K9">
+            <v>0.10956999999999997</v>
+          </cell>
+          <cell r="L9">
+            <v>0.19170000000000006</v>
+          </cell>
+          <cell r="M9">
+            <v>0.35800999999999999</v>
+          </cell>
+          <cell r="N9">
+            <v>0.68367</v>
+          </cell>
+          <cell r="O9">
+            <v>1.2691699999999995</v>
+          </cell>
+          <cell r="P9">
+            <v>2.6727299999999992</v>
+          </cell>
+          <cell r="Q9">
+            <v>5.2848900000000008</v>
+          </cell>
+          <cell r="R9">
+            <v>5.5413700000000006</v>
+          </cell>
+          <cell r="S9">
+            <v>10.123900000000003</v>
+          </cell>
+          <cell r="T9">
+            <v>20.651010230000001</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3">
+        <row r="9">
+          <cell r="B9">
+            <v>1.4790000000000001E-2</v>
+          </cell>
+          <cell r="C9">
+            <v>1.4699999999999996E-2</v>
+          </cell>
+          <cell r="D9">
+            <v>1.5049999999999994E-2</v>
+          </cell>
+          <cell r="E9">
+            <v>1.4839999999999996E-2</v>
+          </cell>
+          <cell r="F9">
+            <v>1.4659999999999998E-2</v>
+          </cell>
+          <cell r="G9">
+            <v>1.6629999999999995E-2</v>
+          </cell>
+          <cell r="H9">
+            <v>1.9139999999999994E-2</v>
+          </cell>
+          <cell r="I9">
+            <v>2.6519999999999991E-2</v>
+          </cell>
+          <cell r="J9">
+            <v>3.8649999999999969E-2</v>
+          </cell>
+          <cell r="K9">
+            <v>6.3469999999999985E-2</v>
+          </cell>
+          <cell r="L9">
+            <v>0.11298000000000007</v>
+          </cell>
+          <cell r="M9">
+            <v>0.21199999999999983</v>
+          </cell>
+          <cell r="N9">
+            <v>0.41116999999999981</v>
+          </cell>
+          <cell r="O9">
+            <v>0.81407999999999991</v>
+          </cell>
+          <cell r="P9">
+            <v>1.5812099999999989</v>
+          </cell>
+          <cell r="Q9">
+            <v>3.1228600000000011</v>
+          </cell>
+          <cell r="R9">
+            <v>6.2702000000000009</v>
+          </cell>
+          <cell r="S9">
+            <v>12.519739999999999</v>
+          </cell>
+          <cell r="T9">
+            <v>25.168320019999996</v>
+          </cell>
+          <cell r="U9">
+            <v>51.016309960000015</v>
+          </cell>
+          <cell r="V9">
+            <v>102.45390990999998</v>
+          </cell>
+          <cell r="W9">
+            <v>205.31741943999995</v>
+          </cell>
+          <cell r="X9">
+            <v>412.1913299900001</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4">
+        <row r="9">
+          <cell r="B9">
+            <v>1.9709999999999991E-2</v>
+          </cell>
+          <cell r="C9">
+            <v>1.9099999999999989E-2</v>
+          </cell>
+          <cell r="D9">
+            <v>1.9949999999999982E-2</v>
+          </cell>
+          <cell r="E9">
+            <v>1.9409999999999986E-2</v>
+          </cell>
+          <cell r="F9">
+            <v>1.9089999999999992E-2</v>
+          </cell>
+          <cell r="G9">
+            <v>2.2239999999999975E-2</v>
+          </cell>
+          <cell r="H9">
+            <v>2.6419999999999968E-2</v>
+          </cell>
+          <cell r="I9">
+            <v>3.6890000000000006E-2</v>
+          </cell>
+          <cell r="J9">
+            <v>5.4399999999999969E-2</v>
+          </cell>
+          <cell r="K9">
+            <v>8.8710000000000039E-2</v>
+          </cell>
+          <cell r="L9">
+            <v>0.16</v>
+          </cell>
+          <cell r="M9">
+            <v>0.30190999999999979</v>
+          </cell>
+          <cell r="N9">
+            <v>0.58777000000000035</v>
+          </cell>
+          <cell r="O9">
+            <v>1.1417200000000001</v>
+          </cell>
+          <cell r="P9">
+            <v>2.2941399999999996</v>
+          </cell>
+          <cell r="Q9">
+            <v>4.5464499999999983</v>
+          </cell>
+          <cell r="R9">
+            <v>9.0558300000000038</v>
+          </cell>
+          <cell r="S9">
+            <v>18.160590089999999</v>
+          </cell>
+          <cell r="T9">
+            <v>36.537869999999984</v>
+          </cell>
+          <cell r="U9">
+            <v>73.476889779999951</v>
+          </cell>
+          <cell r="V9">
+            <v>147.25069986000003</v>
+          </cell>
+          <cell r="W9">
+            <v>294.9716695699999</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5">
+        <row r="9">
+          <cell r="B9">
+            <v>2.0779999999999989E-2</v>
+          </cell>
+          <cell r="C9">
+            <v>2.0369999999999996E-2</v>
+          </cell>
+          <cell r="D9">
+            <v>1.990999999999999E-2</v>
+          </cell>
+          <cell r="E9">
+            <v>1.9979999999999998E-2</v>
+          </cell>
+          <cell r="F9">
+            <v>1.9790000000000002E-2</v>
+          </cell>
+          <cell r="G9">
+            <v>2.0039999999999992E-2</v>
+          </cell>
+          <cell r="H9">
+            <v>2.0569999999999991E-2</v>
+          </cell>
+          <cell r="I9">
+            <v>2.2609999999999984E-2</v>
+          </cell>
+          <cell r="J9">
+            <v>2.8690000000000011E-2</v>
+          </cell>
+          <cell r="K9">
+            <v>3.6999999999999984E-2</v>
+          </cell>
+          <cell r="L9">
+            <v>5.4009999999999996E-2</v>
+          </cell>
+          <cell r="M9">
+            <v>9.0509999999999979E-2</v>
+          </cell>
+          <cell r="N9">
+            <v>0.16283000000000006</v>
+          </cell>
+          <cell r="O9">
+            <v>0.30843999999999983</v>
+          </cell>
+          <cell r="P9">
+            <v>0.58264999999999989</v>
+          </cell>
+          <cell r="Q9">
+            <v>1.1656700000000002</v>
+          </cell>
+          <cell r="R9">
+            <v>2.303879999999999</v>
+          </cell>
+          <cell r="S9">
+            <v>4.5803000000000011</v>
+          </cell>
+          <cell r="T9">
+            <v>9.1295700000000028</v>
+          </cell>
+          <cell r="U9">
+            <v>18.454040150000004</v>
+          </cell>
+          <cell r="V9">
+            <v>37.025059740000017</v>
+          </cell>
+          <cell r="W9">
+            <v>74.142030670000025</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -72791,8 +74845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="N94" sqref="N94"/>
+    <sheetView tabSelected="1" topLeftCell="B85" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="M121" sqref="M121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
